--- a/Combinações Completas JSON.xlsx
+++ b/Combinações Completas JSON.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ano de Construção</t>
+          <t>Intervalo de Anos</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="486">
